--- a/lexicon/Mapping.xlsx
+++ b/lexicon/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazakily\PycharmProjects\EchoBot\lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E168E81D-5D4B-4769-AB17-4FA4729FF811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D261D-3D64-4BD2-B2B7-6FA3C8CB6020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3E92905-1613-4524-A94F-2838AE2E4E53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>barcode</t>
   </si>
@@ -437,13 +437,16 @@
     <t>4640305451297</t>
   </si>
   <si>
-    <t>Крем для лица с тональным эффектом SPF 20+ для смуглой кожи</t>
-  </si>
-  <si>
     <t>4607108657998</t>
   </si>
   <si>
     <t>Антицеллюлитный комплекс "Сила минералов"</t>
+  </si>
+  <si>
+    <t>Крем для лица с тональным эффектом SPF 20+ (тон 02), 50 мл</t>
+  </si>
+  <si>
+    <t>Ozon_SKU</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,560 +844,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C29F6-BC63-4F6E-91BE-68B44670D33A}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.8984375" customWidth="1"/>
     <col min="2" max="2" width="75.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>566487358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <v>377562410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>276064690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>377570299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>276064861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>275504393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>324212219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>351972557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>275459848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>275492859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>352398352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>335394889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>276065502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>275484228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>351955746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>275488167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>335393901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>276064860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>335393105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>276066944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>324211423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>276065022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>335395150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>275487900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>276065074</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>275409942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>276066175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>275504431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>275493095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>578844013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>275475584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>578843084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>579546821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>334607349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>334566783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <v>334563529</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>334603018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>329411758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>324226654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <v>275487612</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>276065353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <v>520832837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <v>519829965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <v>657890005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <v>579848859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <v>578836588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <v>731515412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <v>882069010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <v>882070988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>945690767</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <v>1275735378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="3">
+        <v>1275737779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="3">
+        <v>1066454979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="3">
+        <v>1275737416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="3">
+        <v>1550254178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="3">
+        <v>1541802566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="3">
+        <v>566469871</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="3">
+        <v>1785368003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="3">
+        <v>1745162681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="3">
+        <v>1578535386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="3">
+        <v>1620416631</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="3">
+        <v>1682049278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="3">
+        <v>1914030765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="3">
+        <v>2106205957</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2713453804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
-        <v>135</v>
+      <c r="C68" s="3">
+        <v>275487858</v>
       </c>
     </row>
   </sheetData>

--- a/lexicon/Mapping.xlsx
+++ b/lexicon/Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazakily\PycharmProjects\EchoBot\lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D261D-3D64-4BD2-B2B7-6FA3C8CB6020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA670E2-9D10-4B35-A92F-91B3BC312562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3E92905-1613-4524-A94F-2838AE2E4E53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>barcode</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>Ozon_SKU</t>
+  </si>
+  <si>
+    <t>Срок Годности</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,20 +850,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002C29F6-BC63-4F6E-91BE-68B44670D33A}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.8984375" customWidth="1"/>
     <col min="2" max="2" width="75.296875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,85 +872,109 @@
       <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>566487358</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>377562410</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>276064690</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>377570299</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>276064861</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>275504393</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>324212219</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -955,654 +984,834 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>351972557</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>275459848</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>275492859</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>352398352</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>335394889</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>276065502</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>275484228</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>351955746</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>275488167</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>335393901</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>276064860</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>335393105</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>276066944</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>324211423</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>276065022</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>335395150</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>275487900</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>276065074</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>275409942</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>276066175</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>275504431</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>275493095</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>578844013</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>275475584</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>578843084</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>579546821</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>334607349</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>334566783</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>334563529</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>334603018</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>329411758</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>324226654</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>275487612</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>276065353</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>520832837</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>519829965</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>657890005</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>579848859</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>578836588</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>731515412</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>882069010</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>882070988</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>945690767</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>1275735378</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>1275737779</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>1066454979</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>1275737416</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>1550254178</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>1541802566</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>566469871</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>1785368003</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>1745162681</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>1578535386</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>1620416631</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>1682049278</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>1914030765</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>2106205957</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>2713453804</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>275487858</v>
+      </c>
+      <c r="D68">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
